--- a/CarPriceCombined.xlsx
+++ b/CarPriceCombined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4837" uniqueCount="774">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4836" uniqueCount="774">
   <si>
     <t>title</t>
   </si>
@@ -1399,9 +1399,6 @@
     <t>enginecapacitycc</t>
   </si>
   <si>
-    <t>60.0 kWh</t>
-  </si>
-  <si>
     <t>assembly</t>
   </si>
   <si>
@@ -2336,6 +2333,9 @@
   </si>
   <si>
     <t>manual</t>
+  </si>
+  <si>
+    <t>local</t>
   </si>
 </sst>
 </file>
@@ -2681,8 +2681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N452"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G326" sqref="G326"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2729,13 +2729,13 @@
         <v>460</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -2773,10 +2773,10 @@
         <v>1600</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N2" s="2">
         <v>120000</v>
@@ -2817,10 +2817,10 @@
         <v>1800</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N3" s="2">
         <v>310000</v>
@@ -2861,10 +2861,10 @@
         <v>1000</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N4" s="2">
         <v>439500</v>
@@ -2905,7 +2905,7 @@
         <v>1600</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>394</v>
@@ -2949,10 +2949,10 @@
         <v>1000</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N6" s="2">
         <v>275000</v>
@@ -2993,10 +2993,10 @@
         <v>1500</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N7" s="2">
         <v>395000</v>
@@ -3037,7 +3037,7 @@
         <v>1000</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>394</v>
@@ -3081,10 +3081,10 @@
         <v>1600</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N9" s="2">
         <v>114500</v>
@@ -3125,7 +3125,7 @@
         <v>1000</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>394</v>
@@ -3169,7 +3169,7 @@
         <v>1300</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>394</v>
@@ -3213,10 +3213,10 @@
         <v>1500</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N12" s="2">
         <v>425000</v>
@@ -3257,10 +3257,10 @@
         <v>1600</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N13" s="2">
         <v>240000</v>
@@ -3301,7 +3301,7 @@
         <v>1300</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>394</v>
@@ -3345,7 +3345,7 @@
         <v>1300</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>394</v>
@@ -3389,7 +3389,7 @@
         <v>800</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>394</v>
@@ -3433,10 +3433,10 @@
         <v>1200</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N17" s="2">
         <v>315000</v>
@@ -3477,10 +3477,10 @@
         <v>1800</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N18" s="2">
         <v>157000</v>
@@ -3521,7 +3521,7 @@
         <v>1000</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>394</v>
@@ -3565,10 +3565,10 @@
         <v>4600</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N20" s="2">
         <v>35100000</v>
@@ -3609,10 +3609,10 @@
         <v>1500</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N21" s="2">
         <v>605000</v>
@@ -3653,10 +3653,10 @@
         <v>2700</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N22" s="2">
         <v>400000</v>
@@ -3697,7 +3697,7 @@
         <v>1000</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>394</v>
@@ -3741,10 +3741,10 @@
         <v>2800</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N24" s="2">
         <v>825000</v>
@@ -3785,10 +3785,10 @@
         <v>1300</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N25" s="2">
         <v>279500</v>
@@ -3829,10 +3829,10 @@
         <v>1500</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N26" s="2">
         <v>378000</v>
@@ -3873,10 +3873,10 @@
         <v>1600</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N27" s="2">
         <v>387500</v>
@@ -3917,10 +3917,10 @@
         <v>2800</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N28" s="2">
         <v>935000</v>
@@ -3961,7 +3961,7 @@
         <v>1000</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>394</v>
@@ -4005,7 +4005,7 @@
         <v>1000</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>394</v>
@@ -4049,7 +4049,7 @@
         <v>1300</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>394</v>
@@ -4093,7 +4093,7 @@
         <v>1000</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>394</v>
@@ -4137,7 +4137,7 @@
         <v>1300</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>394</v>
@@ -4181,7 +4181,7 @@
         <v>1000</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>394</v>
@@ -4225,10 +4225,10 @@
         <v>2700</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N35" s="2">
         <v>320000</v>
@@ -4269,10 +4269,10 @@
         <v>1500</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N36" s="2">
         <v>255000</v>
@@ -4313,10 +4313,10 @@
         <v>1500</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N37" s="2">
         <v>216500</v>
@@ -4357,10 +4357,10 @@
         <v>1500</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N38" s="2">
         <v>605000</v>
@@ -4401,7 +4401,7 @@
         <v>1300</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>394</v>
@@ -4445,10 +4445,10 @@
         <v>1000</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N40" s="2">
         <v>270000</v>
@@ -4489,10 +4489,10 @@
         <v>2000</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N41" s="2">
         <v>610000</v>
@@ -4533,10 +4533,10 @@
         <v>1800</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N42" s="2">
         <v>360000</v>
@@ -4577,7 +4577,7 @@
         <v>1300</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>394</v>
@@ -4621,10 +4621,10 @@
         <v>1500</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N44" s="2">
         <v>308000</v>
@@ -4665,10 +4665,10 @@
         <v>800</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N45" s="2">
         <v>75000</v>
@@ -4709,10 +4709,10 @@
         <v>1600</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N46" s="2">
         <v>380000</v>
@@ -4753,10 +4753,10 @@
         <v>1000</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N47" s="2">
         <v>122500</v>
@@ -4797,10 +4797,10 @@
         <v>1500</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N48" s="2">
         <v>659000</v>
@@ -4841,10 +4841,10 @@
         <v>3000</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N49" s="2">
         <v>720000</v>
@@ -4885,7 +4885,7 @@
         <v>1000</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>394</v>
@@ -4929,7 +4929,7 @@
         <v>1500</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>394</v>
@@ -4973,7 +4973,7 @@
         <v>800</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>394</v>
@@ -5017,7 +5017,7 @@
         <v>800</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>394</v>
@@ -5061,10 +5061,10 @@
         <v>1500</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N54" s="2">
         <v>507500</v>
@@ -5105,10 +5105,10 @@
         <v>1800</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N55" s="2">
         <v>385000</v>
@@ -5149,7 +5149,7 @@
         <v>800</v>
       </c>
       <c r="L56" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>394</v>
@@ -5193,10 +5193,10 @@
         <v>1500</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N57" s="2">
         <v>735000</v>
@@ -5237,7 +5237,7 @@
         <v>1800</v>
       </c>
       <c r="L58" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>394</v>
@@ -5281,7 +5281,7 @@
         <v>1000</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>394</v>
@@ -5325,10 +5325,10 @@
         <v>1500</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N60" s="2">
         <v>430000</v>
@@ -5369,7 +5369,7 @@
         <v>800</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>394</v>
@@ -5413,10 +5413,10 @@
         <v>660</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N62" s="2">
         <v>220000</v>
@@ -5457,7 +5457,7 @@
         <v>1300</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>394</v>
@@ -5501,7 +5501,7 @@
         <v>1000</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>394</v>
@@ -5545,10 +5545,10 @@
         <v>3400</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N65" s="2">
         <v>695000</v>
@@ -5589,10 +5589,10 @@
         <v>1800</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N66" s="2">
         <v>280000</v>
@@ -5633,10 +5633,10 @@
         <v>3000</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N67" s="2">
         <v>295000</v>
@@ -5677,10 +5677,10 @@
         <v>1000</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N68" s="2">
         <v>205000</v>
@@ -5721,7 +5721,7 @@
         <v>1300</v>
       </c>
       <c r="L69" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>394</v>
@@ -5765,10 +5765,10 @@
         <v>1500</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N70" s="2"/>
     </row>
@@ -5807,7 +5807,7 @@
         <v>1300</v>
       </c>
       <c r="L71" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>394</v>
@@ -5851,10 +5851,10 @@
         <v>1500</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N72" s="2">
         <v>242500</v>
@@ -5895,7 +5895,7 @@
         <v>1500</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>394</v>
@@ -5939,10 +5939,10 @@
         <v>660</v>
       </c>
       <c r="L74" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N74" s="2">
         <v>245000</v>
@@ -5983,7 +5983,7 @@
         <v>1300</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>394</v>
@@ -6027,10 +6027,10 @@
         <v>2700</v>
       </c>
       <c r="L76" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N76" s="2">
         <v>12600000</v>
@@ -6071,10 +6071,10 @@
         <v>1500</v>
       </c>
       <c r="L77" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N77" s="2">
         <v>255000</v>
@@ -6115,10 +6115,10 @@
         <v>3400</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N78" s="2">
         <v>800000</v>
@@ -6159,10 +6159,10 @@
         <v>1000</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N79" s="2">
         <v>155000</v>
@@ -6203,10 +6203,10 @@
         <v>2800</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N80" s="2">
         <v>920000</v>
@@ -6247,10 +6247,10 @@
         <v>1500</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N81" s="2">
         <v>615000</v>
@@ -6291,10 +6291,10 @@
         <v>1800</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N82" s="2">
         <v>260000</v>
@@ -6335,10 +6335,10 @@
         <v>3000</v>
       </c>
       <c r="L83" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N83" s="2">
         <v>348000</v>
@@ -6379,7 +6379,7 @@
         <v>1000</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>394</v>
@@ -6423,10 +6423,10 @@
         <v>1800</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N85" s="2">
         <v>246500</v>
@@ -6467,10 +6467,10 @@
         <v>1500</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N86" s="2">
         <v>605000</v>
@@ -6511,10 +6511,10 @@
         <v>3400</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N87" s="2">
         <v>550000</v>
@@ -6555,10 +6555,10 @@
         <v>1800</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N88" s="2">
         <v>297500</v>
@@ -6599,10 +6599,10 @@
         <v>1800</v>
       </c>
       <c r="L89" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N89" s="2">
         <v>669500</v>
@@ -6643,7 +6643,7 @@
         <v>1300</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>394</v>
@@ -6687,7 +6687,7 @@
         <v>1800</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>394</v>
@@ -6731,10 +6731,10 @@
         <v>1500</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N92" s="2">
         <v>300000</v>
@@ -6775,10 +6775,10 @@
         <v>1500</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N93" s="2">
         <v>255000</v>
@@ -6819,7 +6819,7 @@
         <v>1000</v>
       </c>
       <c r="L94" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>394</v>
@@ -6863,10 +6863,10 @@
         <v>1800</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N95" s="2">
         <v>360000</v>
@@ -6907,10 +6907,10 @@
         <v>660</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N96" s="2">
         <v>155000</v>
@@ -6951,7 +6951,7 @@
         <v>1300</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>394</v>
@@ -6995,7 +6995,7 @@
         <v>1300</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>394</v>
@@ -7039,10 +7039,10 @@
         <v>2700</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N99" s="2">
         <v>580000</v>
@@ -7083,10 +7083,10 @@
         <v>1500</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N100" s="2">
         <v>367500</v>
@@ -7127,10 +7127,10 @@
         <v>1500</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M101" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N101" s="2">
         <v>370000</v>
@@ -7171,10 +7171,10 @@
         <v>1000</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N102" s="2">
         <v>252500</v>
@@ -7215,10 +7215,10 @@
         <v>1300</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M103" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N103" s="2">
         <v>142500</v>
@@ -7259,7 +7259,7 @@
         <v>1000</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>394</v>
@@ -7303,10 +7303,10 @@
         <v>2800</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M105" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N105" s="2">
         <v>860000</v>
@@ -7347,10 +7347,10 @@
         <v>2800</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M106" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N106" s="2"/>
     </row>
@@ -7389,10 +7389,10 @@
         <v>1800</v>
       </c>
       <c r="L107" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M107" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N107" s="2">
         <v>355000</v>
@@ -7433,7 +7433,7 @@
         <v>1000</v>
       </c>
       <c r="L108" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M108" s="1" t="s">
         <v>394</v>
@@ -7477,7 +7477,7 @@
         <v>1300</v>
       </c>
       <c r="L109" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M109" s="1" t="s">
         <v>394</v>
@@ -7521,10 +7521,10 @@
         <v>1800</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M110" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N110" s="2">
         <v>279000</v>
@@ -7565,10 +7565,10 @@
         <v>2000</v>
       </c>
       <c r="L111" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M111" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N111" s="2">
         <v>655000</v>
@@ -7609,7 +7609,7 @@
         <v>1800</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>394</v>
@@ -7653,7 +7653,7 @@
         <v>660</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>394</v>
@@ -7697,10 +7697,10 @@
         <v>1500</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M114" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N114" s="2">
         <v>352000</v>
@@ -7741,7 +7741,7 @@
         <v>1600</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>394</v>
@@ -7785,10 +7785,10 @@
         <v>660</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M116" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N116" s="2">
         <v>147500</v>
@@ -7829,10 +7829,10 @@
         <v>660</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M117" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N117" s="2">
         <v>225000</v>
@@ -7873,10 +7873,10 @@
         <v>1500</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M118" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N118" s="2">
         <v>605000</v>
@@ -7917,7 +7917,7 @@
         <v>1300</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>394</v>
@@ -7961,7 +7961,7 @@
         <v>1000</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>394</v>
@@ -8005,7 +8005,7 @@
         <v>1000</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>394</v>
@@ -8049,10 +8049,10 @@
         <v>1300</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M122" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N122" s="2">
         <v>270000</v>
@@ -8093,7 +8093,7 @@
         <v>1000</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>394</v>
@@ -8137,10 +8137,10 @@
         <v>1800</v>
       </c>
       <c r="L124" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M124" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N124" s="2">
         <v>228500</v>
@@ -8181,10 +8181,10 @@
         <v>660</v>
       </c>
       <c r="L125" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M125" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N125" s="2">
         <v>119000</v>
@@ -8225,10 +8225,10 @@
         <v>2000</v>
       </c>
       <c r="L126" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M126" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N126" s="2">
         <v>590000</v>
@@ -8269,10 +8269,10 @@
         <v>1000</v>
       </c>
       <c r="L127" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M127" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N127" s="2">
         <v>249500</v>
@@ -8313,7 +8313,7 @@
         <v>1000</v>
       </c>
       <c r="L128" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M128" s="1" t="s">
         <v>394</v>
@@ -8357,7 +8357,7 @@
         <v>660</v>
       </c>
       <c r="L129" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M129" s="1" t="s">
         <v>394</v>
@@ -8401,10 +8401,10 @@
         <v>1600</v>
       </c>
       <c r="L130" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M130" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N130" s="2">
         <v>185000</v>
@@ -8445,7 +8445,7 @@
         <v>1800</v>
       </c>
       <c r="L131" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M131" s="1" t="s">
         <v>394</v>
@@ -8489,10 +8489,10 @@
         <v>1300</v>
       </c>
       <c r="L132" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M132" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N132" s="2">
         <v>300000</v>
@@ -8533,10 +8533,10 @@
         <v>1800</v>
       </c>
       <c r="L133" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M133" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N133" s="2">
         <v>785000</v>
@@ -8577,7 +8577,7 @@
         <v>1000</v>
       </c>
       <c r="L134" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M134" s="1" t="s">
         <v>394</v>
@@ -8621,10 +8621,10 @@
         <v>1000</v>
       </c>
       <c r="L135" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M135" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N135" s="2">
         <v>191500</v>
@@ -8665,10 +8665,10 @@
         <v>1500</v>
       </c>
       <c r="L136" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M136" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N136" s="2"/>
     </row>
@@ -8707,7 +8707,7 @@
         <v>800</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M137" s="1" t="s">
         <v>394</v>
@@ -8751,7 +8751,7 @@
         <v>1600</v>
       </c>
       <c r="L138" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M138" s="1" t="s">
         <v>394</v>
@@ -8795,10 +8795,10 @@
         <v>1500</v>
       </c>
       <c r="L139" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M139" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N139" s="2">
         <v>450000</v>
@@ -8839,10 +8839,10 @@
         <v>1000</v>
       </c>
       <c r="L140" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M140" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N140" s="2">
         <v>307500</v>
@@ -8883,10 +8883,10 @@
         <v>1000</v>
       </c>
       <c r="L141" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M141" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N141" s="2">
         <v>162000</v>
@@ -8927,7 +8927,7 @@
         <v>800</v>
       </c>
       <c r="L142" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M142" s="1" t="s">
         <v>394</v>
@@ -8971,7 +8971,7 @@
         <v>1000</v>
       </c>
       <c r="L143" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M143" s="1" t="s">
         <v>394</v>
@@ -9015,7 +9015,7 @@
         <v>1300</v>
       </c>
       <c r="L144" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M144" s="1" t="s">
         <v>394</v>
@@ -9059,10 +9059,10 @@
         <v>660</v>
       </c>
       <c r="L145" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M145" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N145" s="2">
         <v>136500</v>
@@ -9103,7 +9103,7 @@
         <v>660</v>
       </c>
       <c r="L146" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M146" s="1" t="s">
         <v>394</v>
@@ -9147,7 +9147,7 @@
         <v>1000</v>
       </c>
       <c r="L147" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M147" s="1" t="s">
         <v>394</v>
@@ -9191,10 +9191,10 @@
         <v>1800</v>
       </c>
       <c r="L148" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M148" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N148" s="2">
         <v>155000</v>
@@ -9235,10 +9235,10 @@
         <v>1000</v>
       </c>
       <c r="L149" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M149" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N149" s="2">
         <v>129000</v>
@@ -9279,10 +9279,10 @@
         <v>4200</v>
       </c>
       <c r="L150" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M150" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N150" s="2">
         <v>620000</v>
@@ -9323,10 +9323,10 @@
         <v>1800</v>
       </c>
       <c r="L151" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M151" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N151" s="2">
         <v>477000</v>
@@ -9367,10 +9367,10 @@
         <v>2800</v>
       </c>
       <c r="L152" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M152" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N152" s="2">
         <v>968500</v>
@@ -9411,10 +9411,10 @@
         <v>1600</v>
       </c>
       <c r="L153" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M153" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N153" s="2">
         <v>135000</v>
@@ -9455,10 +9455,10 @@
         <v>1000</v>
       </c>
       <c r="L154" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M154" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N154" s="2">
         <v>289500</v>
@@ -9499,10 +9499,10 @@
         <v>1500</v>
       </c>
       <c r="L155" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M155" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N155" s="2">
         <v>245000</v>
@@ -9543,10 +9543,10 @@
         <v>2700</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M156" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N156" s="2">
         <v>25000000</v>
@@ -9587,10 +9587,10 @@
         <v>2700</v>
       </c>
       <c r="L157" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M157" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N157" s="2">
         <v>14200000</v>
@@ -9631,10 +9631,10 @@
         <v>4000</v>
       </c>
       <c r="L158" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M158" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N158" s="2">
         <v>15900000</v>
@@ -9675,7 +9675,7 @@
         <v>1000</v>
       </c>
       <c r="L159" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M159" s="1" t="s">
         <v>394</v>
@@ -9719,7 +9719,7 @@
         <v>1200</v>
       </c>
       <c r="L160" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M160" s="1" t="s">
         <v>394</v>
@@ -9763,7 +9763,7 @@
         <v>1600</v>
       </c>
       <c r="L161" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M161" s="1" t="s">
         <v>394</v>
@@ -9807,7 +9807,7 @@
         <v>1000</v>
       </c>
       <c r="L162" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M162" s="1" t="s">
         <v>394</v>
@@ -9851,10 +9851,10 @@
         <v>1500</v>
       </c>
       <c r="L163" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M163" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N163" s="2">
         <v>570000</v>
@@ -9895,10 +9895,10 @@
         <v>1800</v>
       </c>
       <c r="L164" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M164" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N164" s="2">
         <v>387500</v>
@@ -9939,10 +9939,10 @@
         <v>660</v>
       </c>
       <c r="L165" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M165" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N165" s="2">
         <v>147500</v>
@@ -9983,7 +9983,7 @@
         <v>1300</v>
       </c>
       <c r="L166" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M166" s="1" t="s">
         <v>394</v>
@@ -10027,10 +10027,10 @@
         <v>2800</v>
       </c>
       <c r="L167" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M167" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N167" s="2">
         <v>11100000</v>
@@ -10071,7 +10071,7 @@
         <v>800</v>
       </c>
       <c r="L168" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M168" s="1" t="s">
         <v>394</v>
@@ -10115,7 +10115,7 @@
         <v>1800</v>
       </c>
       <c r="L169" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M169" s="1" t="s">
         <v>394</v>
@@ -10159,10 +10159,10 @@
         <v>1800</v>
       </c>
       <c r="L170" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M170" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N170" s="2">
         <v>290000</v>
@@ -10201,10 +10201,10 @@
       </c>
       <c r="K171" s="1"/>
       <c r="L171" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N171" s="2">
         <v>18500000</v>
@@ -10245,7 +10245,7 @@
         <v>1300</v>
       </c>
       <c r="L172" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M172" s="1" t="s">
         <v>394</v>
@@ -10289,10 +10289,10 @@
         <v>2000</v>
       </c>
       <c r="L173" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M173" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N173" s="2">
         <v>565000</v>
@@ -10333,7 +10333,7 @@
         <v>660</v>
       </c>
       <c r="L174" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M174" s="1" t="s">
         <v>394</v>
@@ -10377,10 +10377,10 @@
         <v>660</v>
       </c>
       <c r="L175" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M175" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N175" s="2">
         <v>265000</v>
@@ -10421,10 +10421,10 @@
         <v>2700</v>
       </c>
       <c r="L176" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N176" s="2">
         <v>580000</v>
@@ -10465,10 +10465,10 @@
         <v>1800</v>
       </c>
       <c r="L177" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N177" s="2">
         <v>477000</v>
@@ -10509,7 +10509,7 @@
         <v>1300</v>
       </c>
       <c r="L178" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M178" s="1" t="s">
         <v>394</v>
@@ -10553,10 +10553,10 @@
         <v>1000</v>
       </c>
       <c r="L179" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N179" s="2">
         <v>275000</v>
@@ -10597,10 +10597,10 @@
         <v>1600</v>
       </c>
       <c r="L180" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N180" s="2">
         <v>120000</v>
@@ -10641,10 +10641,10 @@
         <v>1500</v>
       </c>
       <c r="L181" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M181" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N181" s="2">
         <v>216500</v>
@@ -10685,10 +10685,10 @@
         <v>2700</v>
       </c>
       <c r="L182" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N182" s="2">
         <v>400000</v>
@@ -10729,7 +10729,7 @@
         <v>1000</v>
       </c>
       <c r="L183" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M183" s="1" t="s">
         <v>394</v>
@@ -10773,10 +10773,10 @@
         <v>2000</v>
       </c>
       <c r="L184" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N184" s="2">
         <v>610000</v>
@@ -10817,10 +10817,10 @@
         <v>1000</v>
       </c>
       <c r="L185" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N185" s="2">
         <v>289500</v>
@@ -10861,10 +10861,10 @@
         <v>660</v>
       </c>
       <c r="L186" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N186" s="2">
         <v>147500</v>
@@ -10905,10 +10905,10 @@
         <v>1500</v>
       </c>
       <c r="L187" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N187" s="2">
         <v>615000</v>
@@ -10949,10 +10949,10 @@
         <v>3400</v>
       </c>
       <c r="L188" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M188" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N188" s="2">
         <v>550000</v>
@@ -10993,7 +10993,7 @@
         <v>1000</v>
       </c>
       <c r="L189" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M189" s="1" t="s">
         <v>394</v>
@@ -11037,10 +11037,10 @@
         <v>2700</v>
       </c>
       <c r="L190" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N190" s="2">
         <v>836500</v>
@@ -11081,7 +11081,7 @@
         <v>660</v>
       </c>
       <c r="L191" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M191" s="1" t="s">
         <v>394</v>
@@ -11125,10 +11125,10 @@
         <v>660</v>
       </c>
       <c r="L192" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N192" s="2">
         <v>265000</v>
@@ -11169,10 +11169,10 @@
         <v>1600</v>
       </c>
       <c r="L193" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N193" s="2">
         <v>240000</v>
@@ -11213,10 +11213,10 @@
         <v>1300</v>
       </c>
       <c r="L194" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N194" s="2">
         <v>300000</v>
@@ -11257,10 +11257,10 @@
         <v>660</v>
       </c>
       <c r="L195" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N195" s="2">
         <v>220000</v>
@@ -11301,7 +11301,7 @@
         <v>1300</v>
       </c>
       <c r="L196" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M196" s="1" t="s">
         <v>394</v>
@@ -11345,10 +11345,10 @@
         <v>1000</v>
       </c>
       <c r="L197" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N197" s="2">
         <v>267500</v>
@@ -11389,10 +11389,10 @@
         <v>2800</v>
       </c>
       <c r="L198" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N198" s="2">
         <v>935000</v>
@@ -11433,10 +11433,10 @@
         <v>1800</v>
       </c>
       <c r="L199" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N199" s="2">
         <v>669500</v>
@@ -11477,7 +11477,7 @@
         <v>1000</v>
       </c>
       <c r="L200" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M200" s="1" t="s">
         <v>394</v>
@@ -11521,10 +11521,10 @@
         <v>1800</v>
       </c>
       <c r="L201" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N201" s="2">
         <v>246500</v>
@@ -11565,10 +11565,10 @@
         <v>1800</v>
       </c>
       <c r="L202" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N202" s="2">
         <v>340000</v>
@@ -11609,10 +11609,10 @@
         <v>1000</v>
       </c>
       <c r="L203" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N203" s="2">
         <v>191500</v>
@@ -11653,7 +11653,7 @@
         <v>1000</v>
       </c>
       <c r="L204" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M204" s="1" t="s">
         <v>394</v>
@@ -11697,10 +11697,10 @@
         <v>660</v>
       </c>
       <c r="L205" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N205" s="2">
         <v>182000</v>
@@ -11741,10 +11741,10 @@
         <v>1800</v>
       </c>
       <c r="L206" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N206" s="2">
         <v>355000</v>
@@ -11785,10 +11785,10 @@
         <v>1600</v>
       </c>
       <c r="L207" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N207" s="2">
         <v>335000</v>
@@ -11829,10 +11829,10 @@
         <v>1500</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M208" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N208" s="2">
         <v>605000</v>
@@ -11873,7 +11873,7 @@
         <v>660</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M209" s="1" t="s">
         <v>394</v>
@@ -11917,10 +11917,10 @@
         <v>1600</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N210" s="2">
         <v>135000</v>
@@ -11961,10 +11961,10 @@
         <v>1000</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N211" s="2">
         <v>252500</v>
@@ -12005,7 +12005,7 @@
         <v>1000</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M212" s="1" t="s">
         <v>394</v>
@@ -12049,10 +12049,10 @@
         <v>1800</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N213" s="2">
         <v>260000</v>
@@ -12093,7 +12093,7 @@
         <v>1000</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M214" s="1" t="s">
         <v>394</v>
@@ -12137,7 +12137,7 @@
         <v>800</v>
       </c>
       <c r="L215" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M215" s="1" t="s">
         <v>394</v>
@@ -12181,10 +12181,10 @@
         <v>660</v>
       </c>
       <c r="L216" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M216" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N216" s="2">
         <v>136500</v>
@@ -12225,10 +12225,10 @@
         <v>1500</v>
       </c>
       <c r="L217" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M217" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N217" s="2">
         <v>425000</v>
@@ -12269,10 +12269,10 @@
         <v>1800</v>
       </c>
       <c r="L218" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N218" s="2">
         <v>157000</v>
@@ -12313,7 +12313,7 @@
         <v>1300</v>
       </c>
       <c r="L219" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M219" s="1" t="s">
         <v>394</v>
@@ -12357,7 +12357,7 @@
         <v>1500</v>
       </c>
       <c r="L220" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M220" s="1" t="s">
         <v>394</v>
@@ -12401,10 +12401,10 @@
         <v>1800</v>
       </c>
       <c r="L221" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N221" s="2">
         <v>785000</v>
@@ -12445,7 +12445,7 @@
         <v>1300</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M222" s="1" t="s">
         <v>394</v>
@@ -12489,10 +12489,10 @@
         <v>1000</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N223" s="2">
         <v>162000</v>
@@ -12533,10 +12533,10 @@
         <v>2800</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N224" s="2">
         <v>860000</v>
@@ -12577,10 +12577,10 @@
         <v>1000</v>
       </c>
       <c r="L225" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N225" s="2">
         <v>270000</v>
@@ -12621,10 +12621,10 @@
         <v>1500</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N226" s="2">
         <v>255000</v>
@@ -12665,10 +12665,10 @@
         <v>2700</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N227" s="2">
         <v>12600000</v>
@@ -12709,10 +12709,10 @@
         <v>2800</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N228" s="2">
         <v>920000</v>
@@ -12753,7 +12753,7 @@
         <v>1500</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M229" s="1" t="s">
         <v>394</v>
@@ -12797,10 +12797,10 @@
         <v>1500</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N230" s="2"/>
     </row>
@@ -12839,7 +12839,7 @@
         <v>1800</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M231" s="1" t="s">
         <v>394</v>
@@ -12883,10 +12883,10 @@
         <v>1500</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N232" s="2">
         <v>287500</v>
@@ -12927,7 +12927,7 @@
         <v>1300</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M233" s="1" t="s">
         <v>394</v>
@@ -12971,10 +12971,10 @@
         <v>660</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N234" s="2">
         <v>165000</v>
@@ -13015,10 +13015,10 @@
         <v>1800</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N235" s="2">
         <v>279000</v>
@@ -13059,7 +13059,7 @@
         <v>1000</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M236" s="1" t="s">
         <v>394</v>
@@ -13103,10 +13103,10 @@
         <v>1500</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M237" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N237" s="2">
         <v>605000</v>
@@ -13147,10 +13147,10 @@
         <v>1800</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N238" s="2">
         <v>360000</v>
@@ -13191,10 +13191,10 @@
         <v>1800</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M239" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N239" s="2">
         <v>387500</v>
@@ -13235,7 +13235,7 @@
         <v>1800</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M240" s="1" t="s">
         <v>394</v>
@@ -13279,7 +13279,7 @@
         <v>1300</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M241" s="1" t="s">
         <v>394</v>
@@ -13323,7 +13323,7 @@
         <v>660</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M242" s="1" t="s">
         <v>394</v>
@@ -13367,10 +13367,10 @@
         <v>1500</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N243" s="2">
         <v>605000</v>
@@ -13411,7 +13411,7 @@
         <v>1000</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M244" s="1" t="s">
         <v>394</v>
@@ -13455,10 +13455,10 @@
         <v>660</v>
       </c>
       <c r="L245" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M245" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N245" s="2">
         <v>120000</v>
@@ -13499,7 +13499,7 @@
         <v>1300</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M246" s="1" t="s">
         <v>394</v>
@@ -13543,10 +13543,10 @@
         <v>2800</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N247" s="2">
         <v>825000</v>
@@ -13587,10 +13587,10 @@
         <v>1800</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N248" s="2">
         <v>250000</v>
@@ -13631,10 +13631,10 @@
         <v>1600</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N249" s="2">
         <v>387500</v>
@@ -13675,10 +13675,10 @@
         <v>1500</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M250" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N250" s="2">
         <v>565000</v>
@@ -13719,10 +13719,10 @@
         <v>1000</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M251" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N251" s="2">
         <v>129000</v>
@@ -13763,10 +13763,10 @@
         <v>1500</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M252" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N252" s="2">
         <v>570000</v>
@@ -13807,10 +13807,10 @@
         <v>2000</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M253" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N253" s="2">
         <v>565000</v>
@@ -13851,10 +13851,10 @@
         <v>1800</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M254" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N254" s="2">
         <v>297500</v>
@@ -13895,7 +13895,7 @@
         <v>1800</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M255" s="1" t="s">
         <v>394</v>
@@ -13939,7 +13939,7 @@
         <v>1600</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M256" s="1" t="s">
         <v>394</v>
@@ -13983,7 +13983,7 @@
         <v>2400</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M257" s="1" t="s">
         <v>394</v>
@@ -14027,10 +14027,10 @@
         <v>800</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M258" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N258" s="2">
         <v>75000</v>
@@ -14071,7 +14071,7 @@
         <v>1300</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M259" s="1" t="s">
         <v>394</v>
@@ -14115,10 +14115,10 @@
         <v>1000</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M260" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N260" s="2">
         <v>149500</v>
@@ -14159,7 +14159,7 @@
         <v>800</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M261" s="1" t="s">
         <v>394</v>
@@ -14203,10 +14203,10 @@
         <v>1500</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N262" s="2">
         <v>507500</v>
@@ -14247,7 +14247,7 @@
         <v>800</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M263" s="1" t="s">
         <v>394</v>
@@ -14291,10 +14291,10 @@
         <v>3000</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N264" s="2">
         <v>720000</v>
@@ -14335,10 +14335,10 @@
         <v>2800</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N265" s="2"/>
     </row>
@@ -14377,10 +14377,10 @@
         <v>1000</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N266" s="2">
         <v>249500</v>
@@ -14421,10 +14421,10 @@
         <v>1500</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N267" s="2">
         <v>450000</v>
@@ -14465,10 +14465,10 @@
         <v>4600</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N268" s="2">
         <v>35100000</v>
@@ -14509,10 +14509,10 @@
         <v>1000</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N269" s="2">
         <v>439500</v>
@@ -14553,7 +14553,7 @@
         <v>1800</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M270" s="1" t="s">
         <v>394</v>
@@ -14597,10 +14597,10 @@
         <v>1800</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M271" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N271" s="2">
         <v>385000</v>
@@ -14641,10 +14641,10 @@
         <v>1500</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M272" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N272" s="2">
         <v>735000</v>
@@ -14685,7 +14685,7 @@
         <v>1300</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M273" s="1" t="s">
         <v>394</v>
@@ -14729,7 +14729,7 @@
         <v>1300</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M274" s="1" t="s">
         <v>394</v>
@@ -14773,7 +14773,7 @@
         <v>1300</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M275" s="1" t="s">
         <v>394</v>
@@ -14817,7 +14817,7 @@
         <v>1600</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M276" s="1" t="s">
         <v>394</v>
@@ -14861,10 +14861,10 @@
         <v>1500</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N277" s="2">
         <v>308000</v>
@@ -14905,10 +14905,10 @@
         <v>1600</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N278" s="2">
         <v>114500</v>
@@ -14949,10 +14949,10 @@
         <v>1500</v>
       </c>
       <c r="L279" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N279" s="2">
         <v>255000</v>
@@ -14993,7 +14993,7 @@
         <v>800</v>
       </c>
       <c r="L280" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M280" s="1" t="s">
         <v>394</v>
@@ -15037,7 +15037,7 @@
         <v>1000</v>
       </c>
       <c r="L281" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M281" s="1" t="s">
         <v>394</v>
@@ -15081,10 +15081,10 @@
         <v>4000</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N282" s="2">
         <v>15900000</v>
@@ -15125,10 +15125,10 @@
         <v>1500</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N283" s="2">
         <v>640000</v>
@@ -15169,7 +15169,7 @@
         <v>1000</v>
       </c>
       <c r="L284" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M284" s="1" t="s">
         <v>394</v>
@@ -15213,10 +15213,10 @@
         <v>1500</v>
       </c>
       <c r="L285" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M285" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N285" s="2">
         <v>605000</v>
@@ -15257,10 +15257,10 @@
         <v>660</v>
       </c>
       <c r="L286" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M286" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N286" s="2">
         <v>229500</v>
@@ -15301,10 +15301,10 @@
         <v>1000</v>
       </c>
       <c r="L287" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M287" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N287" s="2">
         <v>307500</v>
@@ -15345,7 +15345,7 @@
         <v>1000</v>
       </c>
       <c r="L288" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M288" s="1" t="s">
         <v>394</v>
@@ -15389,10 +15389,10 @@
         <v>2800</v>
       </c>
       <c r="L289" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M289" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N289" s="2">
         <v>968500</v>
@@ -15433,7 +15433,7 @@
         <v>1300</v>
       </c>
       <c r="L290" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M290" s="1" t="s">
         <v>394</v>
@@ -15477,10 +15477,10 @@
         <v>660</v>
       </c>
       <c r="L291" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M291" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N291" s="2">
         <v>192500</v>
@@ -15521,10 +15521,10 @@
         <v>1600</v>
       </c>
       <c r="L292" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M292" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N292" s="2">
         <v>185000</v>
@@ -15565,10 +15565,10 @@
         <v>1800</v>
       </c>
       <c r="L293" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M293" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N293" s="2">
         <v>310000</v>
@@ -15609,10 +15609,10 @@
         <v>1500</v>
       </c>
       <c r="L294" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N294" s="2">
         <v>352000</v>
@@ -15653,10 +15653,10 @@
         <v>1500</v>
       </c>
       <c r="L295" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M295" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N295" s="2">
         <v>370000</v>
@@ -15697,10 +15697,10 @@
         <v>1800</v>
       </c>
       <c r="L296" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M296" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N296" s="2">
         <v>370000</v>
@@ -15741,10 +15741,10 @@
         <v>1200</v>
       </c>
       <c r="L297" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M297" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N297" s="2">
         <v>315000</v>
@@ -15785,7 +15785,7 @@
         <v>1000</v>
       </c>
       <c r="L298" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M298" s="1" t="s">
         <v>394</v>
@@ -15829,7 +15829,7 @@
         <v>1300</v>
       </c>
       <c r="L299" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M299" s="1" t="s">
         <v>394</v>
@@ -15873,7 +15873,7 @@
         <v>1300</v>
       </c>
       <c r="L300" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M300" s="1" t="s">
         <v>394</v>
@@ -15917,10 +15917,10 @@
         <v>1500</v>
       </c>
       <c r="L301" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N301" s="2">
         <v>242500</v>
@@ -15961,10 +15961,10 @@
         <v>1800</v>
       </c>
       <c r="L302" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M302" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N302" s="2">
         <v>360000</v>
@@ -16005,10 +16005,10 @@
         <v>1300</v>
       </c>
       <c r="L303" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N303" s="2">
         <v>279500</v>
@@ -16049,10 +16049,10 @@
         <v>1800</v>
       </c>
       <c r="L304" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N304" s="2">
         <v>325000</v>
@@ -16093,10 +16093,10 @@
         <v>1000</v>
       </c>
       <c r="L305" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N305" s="2">
         <v>122500</v>
@@ -16137,10 +16137,10 @@
         <v>660</v>
       </c>
       <c r="L306" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M306" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N306" s="2">
         <v>147500</v>
@@ -16181,10 +16181,10 @@
         <v>1500</v>
       </c>
       <c r="L307" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M307" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N307" s="2">
         <v>345000</v>
@@ -16225,10 +16225,10 @@
         <v>1800</v>
       </c>
       <c r="L308" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M308" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N308" s="2">
         <v>155000</v>
@@ -16269,10 +16269,10 @@
         <v>1500</v>
       </c>
       <c r="L309" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M309" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N309" s="2">
         <v>133500</v>
@@ -16313,10 +16313,10 @@
         <v>2800</v>
       </c>
       <c r="L310" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M310" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N310" s="2">
         <v>863000</v>
@@ -16357,10 +16357,10 @@
         <v>1500</v>
       </c>
       <c r="L311" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M311" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N311" s="2">
         <v>255000</v>
@@ -16401,7 +16401,7 @@
         <v>1300</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M312" s="1" t="s">
         <v>394</v>
@@ -16445,10 +16445,10 @@
         <v>1500</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M313" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N313" s="2">
         <v>255000</v>
@@ -16489,7 +16489,7 @@
         <v>1300</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M314" s="1" t="s">
         <v>394</v>
@@ -16533,7 +16533,7 @@
         <v>1300</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M315" s="1" t="s">
         <v>394</v>
@@ -16577,10 +16577,10 @@
         <v>1500</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M316" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N316" s="2">
         <v>235000</v>
@@ -16621,7 +16621,7 @@
         <v>1000</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M317" s="1" t="s">
         <v>394</v>
@@ -16665,10 +16665,10 @@
         <v>1500</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M318" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N318" s="2">
         <v>320000</v>
@@ -16709,7 +16709,7 @@
         <v>1000</v>
       </c>
       <c r="L319" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M319" s="1" t="s">
         <v>394</v>
@@ -16753,7 +16753,7 @@
         <v>1000</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M320" s="1" t="s">
         <v>394</v>
@@ -16793,14 +16793,12 @@
       <c r="J321" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="K321" s="1" t="s">
-        <v>461</v>
-      </c>
+      <c r="K321" s="1"/>
       <c r="L321" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M321" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N321" s="2">
         <v>18500000</v>
@@ -16841,10 +16839,10 @@
         <v>2000</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M322" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N322" s="2">
         <v>655000</v>
@@ -16885,7 +16883,7 @@
         <v>1300</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M323" s="1" t="s">
         <v>394</v>
@@ -16929,10 +16927,10 @@
         <v>1500</v>
       </c>
       <c r="L324" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M324" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N324" s="2">
         <v>300000</v>
@@ -16973,7 +16971,7 @@
         <v>800</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M325" s="1" t="s">
         <v>394</v>
@@ -17017,10 +17015,10 @@
         <v>3000</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M326" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N326" s="2">
         <v>348000</v>
@@ -17061,7 +17059,7 @@
         <v>1000</v>
       </c>
       <c r="L327" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M327" s="1" t="s">
         <v>394</v>
@@ -17105,7 +17103,7 @@
         <v>1000</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M328" s="1" t="s">
         <v>394</v>
@@ -17149,7 +17147,7 @@
         <v>1000</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>394</v>
+        <v>773</v>
       </c>
       <c r="M329" s="1" t="s">
         <v>394</v>
@@ -17193,10 +17191,10 @@
         <v>3400</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M330" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="N330" s="2">
         <v>695000</v>
@@ -17204,7 +17202,7 @@
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A331" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>186</v>
@@ -17213,19 +17211,19 @@
         <v>204</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E331" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H331" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I331" s="1" t="s">
         <v>421</v>
@@ -17235,7 +17233,7 @@
       </c>
       <c r="K331" s="1"/>
       <c r="M331" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N331" s="1">
         <v>4350000</v>
@@ -17243,7 +17241,7 @@
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A332" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>186</v>
@@ -17252,16 +17250,16 @@
         <v>202</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E332" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>423</v>
@@ -17274,7 +17272,7 @@
       </c>
       <c r="K332" s="1"/>
       <c r="M332" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N332" s="1">
         <v>2100000</v>
@@ -17282,7 +17280,7 @@
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A333" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>187</v>
@@ -17291,16 +17289,16 @@
         <v>215</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E333" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>423</v>
@@ -17312,10 +17310,10 @@
         <v>441</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M333" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N333" s="1">
         <v>1740000</v>
@@ -17323,7 +17321,7 @@
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A334" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>187</v>
@@ -17332,16 +17330,16 @@
         <v>206</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E334" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F334" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G334" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>423</v>
@@ -17354,7 +17352,7 @@
       </c>
       <c r="K334" s="1"/>
       <c r="M334" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N334" s="1">
         <v>1330000</v>
@@ -17362,7 +17360,7 @@
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A335" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>191</v>
@@ -17371,16 +17369,16 @@
         <v>241</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E335" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>423</v>
@@ -17392,10 +17390,10 @@
         <v>439</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M335" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N335" s="1">
         <v>1470000</v>
@@ -17403,7 +17401,7 @@
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A336" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>187</v>
@@ -17412,16 +17410,16 @@
         <v>206</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E336" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F336" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>423</v>
@@ -17434,7 +17432,7 @@
       </c>
       <c r="K336" s="1"/>
       <c r="M336" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N336" s="1">
         <v>560000</v>
@@ -17442,7 +17440,7 @@
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A337" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>186</v>
@@ -17451,16 +17449,16 @@
         <v>202</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E337" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>423</v>
@@ -17473,7 +17471,7 @@
       </c>
       <c r="K337" s="1"/>
       <c r="M337" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N337" s="1">
         <v>1980000</v>
@@ -17481,7 +17479,7 @@
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A338" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>185</v>
@@ -17490,16 +17488,16 @@
         <v>200</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E338" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>423</v>
@@ -17512,7 +17510,7 @@
       </c>
       <c r="K338" s="1"/>
       <c r="M338" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N338" s="1">
         <v>1950000</v>
@@ -17520,7 +17518,7 @@
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A339" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>191</v>
@@ -17529,16 +17527,16 @@
         <v>241</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E339" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F339" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G339" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>423</v>
@@ -17550,10 +17548,10 @@
         <v>443</v>
       </c>
       <c r="K339" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M339" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N339" s="1">
         <v>1300000</v>
@@ -17561,28 +17559,28 @@
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A340" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E340" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F340" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H340" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I340" s="1" t="s">
         <v>421</v>
@@ -17592,7 +17590,7 @@
       </c>
       <c r="K340" s="1"/>
       <c r="M340" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N340" s="1">
         <v>1720000</v>
@@ -17600,7 +17598,7 @@
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A341" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>185</v>
@@ -17609,16 +17607,16 @@
         <v>200</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E341" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F341" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>423</v>
@@ -17631,7 +17629,7 @@
       </c>
       <c r="K341" s="1"/>
       <c r="M341" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N341" s="1">
         <v>2100000</v>
@@ -17639,7 +17637,7 @@
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A342" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>187</v>
@@ -17648,16 +17646,16 @@
         <v>215</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E342" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F342" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>423</v>
@@ -17669,10 +17667,10 @@
         <v>438</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M342" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N342" s="1">
         <v>1725000</v>
@@ -17680,7 +17678,7 @@
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A343" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>187</v>
@@ -17689,16 +17687,16 @@
         <v>236</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E343" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G343" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>423</v>
@@ -17711,7 +17709,7 @@
       </c>
       <c r="K343" s="1"/>
       <c r="M343" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N343" s="1">
         <v>1380000</v>
@@ -17719,7 +17717,7 @@
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A344" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>187</v>
@@ -17728,16 +17726,16 @@
         <v>215</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E344" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G344" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>423</v>
@@ -17749,10 +17747,10 @@
         <v>441</v>
       </c>
       <c r="K344" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M344" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N344" s="1">
         <v>2050000</v>
@@ -17760,7 +17758,7 @@
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A345" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>185</v>
@@ -17769,16 +17767,16 @@
         <v>200</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E345" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G345" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>423</v>
@@ -17791,7 +17789,7 @@
       </c>
       <c r="K345" s="1"/>
       <c r="M345" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N345" s="1">
         <v>3260000</v>
@@ -17799,28 +17797,28 @@
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A346" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E346" s="1" t="s">
         <v>390</v>
       </c>
       <c r="F346" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G346" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H346" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I346" s="1" t="s">
         <v>421</v>
@@ -17830,7 +17828,7 @@
       </c>
       <c r="K346" s="1"/>
       <c r="M346" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N346" s="1">
         <v>630000</v>
@@ -17838,7 +17836,7 @@
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A347" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>187</v>
@@ -17847,29 +17845,29 @@
         <v>236</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E347" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G347" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>394</v>
       </c>
       <c r="I347" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J347" s="1" t="s">
         <v>394</v>
       </c>
       <c r="K347" s="1"/>
       <c r="M347" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N347" s="1">
         <v>1520000</v>
@@ -17877,7 +17875,7 @@
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A348" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>185</v>
@@ -17886,16 +17884,16 @@
         <v>203</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E348" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G348" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>423</v>
@@ -17908,7 +17906,7 @@
       </c>
       <c r="K348" s="1"/>
       <c r="M348" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N348" s="1">
         <v>2180000</v>
@@ -17916,25 +17914,25 @@
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A349" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B349" s="1" t="s">
         <v>191</v>
       </c>
       <c r="C349" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E349" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G349" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>423</v>
@@ -17946,10 +17944,10 @@
         <v>438</v>
       </c>
       <c r="K349" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M349" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N349" s="1">
         <v>1270000</v>
@@ -17957,7 +17955,7 @@
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A350" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>185</v>
@@ -17966,16 +17964,16 @@
         <v>200</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E350" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G350" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>423</v>
@@ -17988,7 +17986,7 @@
       </c>
       <c r="K350" s="1"/>
       <c r="M350" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N350" s="1">
         <v>2900000</v>
@@ -17996,7 +17994,7 @@
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A351" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>191</v>
@@ -18005,31 +18003,31 @@
         <v>223</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E351" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G351" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H351" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I351" s="1" t="s">
         <v>421</v>
       </c>
       <c r="J351" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K351" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M351" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N351" s="1">
         <v>760000</v>
@@ -18037,25 +18035,25 @@
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A352" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E352" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G352" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>423</v>
@@ -18067,10 +18065,10 @@
         <v>438</v>
       </c>
       <c r="K352" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M352" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N352" s="1">
         <v>980000</v>
@@ -18078,25 +18076,25 @@
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A353" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B353" s="1" t="s">
         <v>193</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E353" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G353" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>423</v>
@@ -18109,7 +18107,7 @@
       </c>
       <c r="K353" s="1"/>
       <c r="M353" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N353" s="1">
         <v>525000</v>
@@ -18117,7 +18115,7 @@
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A354" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B354" s="1" t="s">
         <v>186</v>
@@ -18126,16 +18124,16 @@
         <v>202</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E354" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G354" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>423</v>
@@ -18148,7 +18146,7 @@
       </c>
       <c r="K354" s="1"/>
       <c r="M354" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N354" s="1">
         <v>2300000</v>
@@ -18156,7 +18154,7 @@
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A355" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B355" s="1" t="s">
         <v>187</v>
@@ -18165,19 +18163,19 @@
         <v>206</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E355" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F355" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G355" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H355" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I355" s="1" t="s">
         <v>428</v>
@@ -18187,7 +18185,7 @@
       </c>
       <c r="K355" s="1"/>
       <c r="M355" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N355" s="1">
         <v>960000</v>
@@ -18195,7 +18193,7 @@
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A356" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B356" s="1" t="s">
         <v>185</v>
@@ -18204,16 +18202,16 @@
         <v>200</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E356" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F356" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G356" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>423</v>
@@ -18226,7 +18224,7 @@
       </c>
       <c r="K356" s="1"/>
       <c r="M356" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N356" s="1">
         <v>2580000</v>
@@ -18234,7 +18232,7 @@
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A357" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B357" s="1" t="s">
         <v>188</v>
@@ -18243,16 +18241,16 @@
         <v>220</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E357" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F357" s="1" t="s">
+        <v>753</v>
+      </c>
+      <c r="G357" s="1" t="s">
         <v>754</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>755</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>423</v>
@@ -18265,7 +18263,7 @@
       </c>
       <c r="K357" s="1"/>
       <c r="M357" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N357" s="1">
         <v>2180000</v>
@@ -18273,7 +18271,7 @@
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A358" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B358" s="1" t="s">
         <v>187</v>
@@ -18282,16 +18280,16 @@
         <v>215</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E358" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G358" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>423</v>
@@ -18303,10 +18301,10 @@
         <v>441</v>
       </c>
       <c r="K358" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M358" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N358" s="1">
         <v>1610000</v>
@@ -18314,7 +18312,7 @@
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A359" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B359" s="1" t="s">
         <v>187</v>
@@ -18323,19 +18321,19 @@
         <v>206</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E359" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G359" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H359" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I359" s="1" t="s">
         <v>421</v>
@@ -18345,7 +18343,7 @@
       </c>
       <c r="K359" s="1"/>
       <c r="M359" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N359" s="1">
         <v>1180000</v>
@@ -18353,7 +18351,7 @@
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A360" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B360" s="1" t="s">
         <v>187</v>
@@ -18362,16 +18360,16 @@
         <v>206</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E360" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G360" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>423</v>
@@ -18384,7 +18382,7 @@
       </c>
       <c r="K360" s="1"/>
       <c r="M360" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N360" s="1">
         <v>1330000</v>
@@ -18392,7 +18390,7 @@
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A361" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>187</v>
@@ -18401,16 +18399,16 @@
         <v>236</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E361" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F361" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G361" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>423</v>
@@ -18423,7 +18421,7 @@
       </c>
       <c r="K361" s="1"/>
       <c r="M361" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N361" s="1">
         <v>1400000</v>
@@ -18431,7 +18429,7 @@
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A362" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>187</v>
@@ -18440,16 +18438,16 @@
         <v>206</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E362" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>423</v>
@@ -18462,7 +18460,7 @@
       </c>
       <c r="K362" s="1"/>
       <c r="M362" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N362" s="1">
         <v>1930000</v>
@@ -18470,7 +18468,7 @@
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A363" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>186</v>
@@ -18479,16 +18477,16 @@
         <v>202</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E363" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="G363" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H363" s="1" t="s">
         <v>423</v>
@@ -18501,7 +18499,7 @@
       </c>
       <c r="K363" s="1"/>
       <c r="M363" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N363" s="1">
         <v>2000000</v>
@@ -18509,7 +18507,7 @@
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A364" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>187</v>
@@ -18518,16 +18516,16 @@
         <v>215</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E364" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F364" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>423</v>
@@ -18536,13 +18534,13 @@
         <v>421</v>
       </c>
       <c r="J364" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K364" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M364" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N364" s="1">
         <v>1480000</v>
@@ -18550,7 +18548,7 @@
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A365" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>187</v>
@@ -18559,19 +18557,19 @@
         <v>208</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E365" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G365" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H365" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I365" s="1" t="s">
         <v>421</v>
@@ -18580,10 +18578,10 @@
         <v>438</v>
       </c>
       <c r="K365" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M365" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="M365" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="N365" s="1">
         <v>250000</v>
@@ -18591,7 +18589,7 @@
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A366" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>187</v>
@@ -18600,29 +18598,29 @@
         <v>236</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E366" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G366" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H366" s="1" t="s">
         <v>394</v>
       </c>
       <c r="I366" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J366" s="1" t="s">
         <v>394</v>
       </c>
       <c r="K366" s="1"/>
       <c r="M366" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N366" s="1">
         <v>1460000</v>
@@ -18630,7 +18628,7 @@
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A367" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>186</v>
@@ -18639,16 +18637,16 @@
         <v>207</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E367" s="1" t="s">
         <v>381</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G367" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H367" s="1" t="s">
         <v>423</v>
@@ -18661,7 +18659,7 @@
       </c>
       <c r="K367" s="1"/>
       <c r="M367" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N367" s="1">
         <v>1100000</v>
@@ -18669,7 +18667,7 @@
     </row>
     <row r="368" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A368" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>186</v>
@@ -18678,16 +18676,16 @@
         <v>207</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E368" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G368" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H368" s="1" t="s">
         <v>423</v>
@@ -18700,7 +18698,7 @@
       </c>
       <c r="K368" s="1"/>
       <c r="M368" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N368" s="1">
         <v>2400000</v>
@@ -18708,7 +18706,7 @@
     </row>
     <row r="369" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A369" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>191</v>
@@ -18717,19 +18715,19 @@
         <v>223</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E369" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F369" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G369" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H369" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I369" s="1" t="s">
         <v>421</v>
@@ -18738,10 +18736,10 @@
         <v>450</v>
       </c>
       <c r="K369" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M369" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N369" s="1">
         <v>630000</v>
@@ -18749,7 +18747,7 @@
     </row>
     <row r="370" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A370" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>187</v>
@@ -18758,16 +18756,16 @@
         <v>215</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E370" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F370" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G370" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H370" s="1" t="s">
         <v>423</v>
@@ -18779,10 +18777,10 @@
         <v>438</v>
       </c>
       <c r="K370" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M370" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N370" s="1">
         <v>1750000</v>
@@ -18790,7 +18788,7 @@
     </row>
     <row r="371" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A371" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>187</v>
@@ -18799,16 +18797,16 @@
         <v>206</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E371" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="G371" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H371" s="1" t="s">
         <v>423</v>
@@ -18821,7 +18819,7 @@
       </c>
       <c r="K371" s="1"/>
       <c r="M371" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N371" s="1">
         <v>1180000</v>
@@ -18829,7 +18827,7 @@
     </row>
     <row r="372" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A372" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>186</v>
@@ -18838,16 +18836,16 @@
         <v>207</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E372" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G372" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H372" s="1" t="s">
         <v>423</v>
@@ -18860,7 +18858,7 @@
       </c>
       <c r="K372" s="1"/>
       <c r="M372" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N372" s="1">
         <v>2650000</v>
@@ -18868,7 +18866,7 @@
     </row>
     <row r="373" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A373" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>187</v>
@@ -18877,16 +18875,16 @@
         <v>236</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E373" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G373" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H373" s="1" t="s">
         <v>423</v>
@@ -18899,7 +18897,7 @@
       </c>
       <c r="K373" s="1"/>
       <c r="M373" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N373" s="1">
         <v>1380000</v>
@@ -18907,7 +18905,7 @@
     </row>
     <row r="374" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A374" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>185</v>
@@ -18916,16 +18914,16 @@
         <v>200</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E374" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G374" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H374" s="1" t="s">
         <v>423</v>
@@ -18938,7 +18936,7 @@
       </c>
       <c r="K374" s="1"/>
       <c r="M374" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N374" s="1">
         <v>2850000</v>
@@ -18946,28 +18944,28 @@
     </row>
     <row r="375" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A375" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C375" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E375" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F375" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G375" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H375" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I375" s="1" t="s">
         <v>429</v>
@@ -18977,7 +18975,7 @@
       </c>
       <c r="K375" s="1"/>
       <c r="M375" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N375" s="1">
         <v>2450000</v>
@@ -18985,7 +18983,7 @@
     </row>
     <row r="376" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A376" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>185</v>
@@ -18994,16 +18992,16 @@
         <v>200</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E376" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F376" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="G376" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H376" s="1" t="s">
         <v>423</v>
@@ -19016,7 +19014,7 @@
       </c>
       <c r="K376" s="1"/>
       <c r="M376" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N376" s="1">
         <v>1900000</v>
@@ -19024,7 +19022,7 @@
     </row>
     <row r="377" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A377" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>185</v>
@@ -19033,16 +19031,16 @@
         <v>200</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E377" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F377" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>423</v>
@@ -19055,7 +19053,7 @@
       </c>
       <c r="K377" s="1"/>
       <c r="M377" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N377" s="1">
         <v>2000000</v>
@@ -19063,7 +19061,7 @@
     </row>
     <row r="378" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A378" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>185</v>
@@ -19072,19 +19070,19 @@
         <v>213</v>
       </c>
       <c r="D378" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E378" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G378" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H378" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I378" s="1" t="s">
         <v>421</v>
@@ -19094,7 +19092,7 @@
       </c>
       <c r="K378" s="1"/>
       <c r="M378" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N378" s="1">
         <v>5200000</v>
@@ -19102,7 +19100,7 @@
     </row>
     <row r="379" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A379" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>186</v>
@@ -19111,19 +19109,19 @@
         <v>204</v>
       </c>
       <c r="D379" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E379" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G379" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H379" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I379" s="1" t="s">
         <v>421</v>
@@ -19133,7 +19131,7 @@
       </c>
       <c r="K379" s="1"/>
       <c r="M379" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N379" s="1">
         <v>3200000</v>
@@ -19141,7 +19139,7 @@
     </row>
     <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>186</v>
@@ -19150,16 +19148,16 @@
         <v>202</v>
       </c>
       <c r="D380" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E380" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H380" s="1" t="s">
         <v>423</v>
@@ -19172,7 +19170,7 @@
       </c>
       <c r="K380" s="1"/>
       <c r="M380" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N380" s="1">
         <v>3480000</v>
@@ -19180,7 +19178,7 @@
     </row>
     <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>186</v>
@@ -19189,16 +19187,16 @@
         <v>202</v>
       </c>
       <c r="D381" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E381" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G381" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H381" s="1" t="s">
         <v>423</v>
@@ -19211,7 +19209,7 @@
       </c>
       <c r="K381" s="1"/>
       <c r="M381" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N381" s="1">
         <v>2120000</v>
@@ -19219,7 +19217,7 @@
     </row>
     <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>187</v>
@@ -19228,16 +19226,16 @@
         <v>215</v>
       </c>
       <c r="D382" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E382" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G382" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H382" s="1" t="s">
         <v>423</v>
@@ -19249,10 +19247,10 @@
         <v>438</v>
       </c>
       <c r="K382" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M382" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N382" s="1">
         <v>1750000</v>
@@ -19260,7 +19258,7 @@
     </row>
     <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>188</v>
@@ -19269,16 +19267,16 @@
         <v>245</v>
       </c>
       <c r="D383" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E383" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G383" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H383" s="1" t="s">
         <v>423</v>
@@ -19290,10 +19288,10 @@
         <v>443</v>
       </c>
       <c r="K383" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M383" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N383" s="1">
         <v>1680000</v>
@@ -19301,25 +19299,25 @@
     </row>
     <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>185</v>
       </c>
       <c r="C384" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D384" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E384" s="1" t="s">
         <v>365</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G384" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H384" s="1" t="s">
         <v>423</v>
@@ -19332,7 +19330,7 @@
       </c>
       <c r="K384" s="1"/>
       <c r="M384" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N384" s="1">
         <v>5600000</v>
@@ -19340,7 +19338,7 @@
     </row>
     <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>186</v>
@@ -19349,16 +19347,16 @@
         <v>202</v>
       </c>
       <c r="D385" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="E385" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>423</v>
@@ -19371,7 +19369,7 @@
       </c>
       <c r="K385" s="1"/>
       <c r="M385" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N385" s="1">
         <v>1350000</v>
@@ -19379,7 +19377,7 @@
     </row>
     <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B386" s="1" t="s">
         <v>186</v>
@@ -19388,29 +19386,29 @@
         <v>202</v>
       </c>
       <c r="D386" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E386" s="1" t="s">
         <v>375</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G386" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H386" s="1" t="s">
         <v>394</v>
       </c>
       <c r="I386" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J386" s="1" t="s">
         <v>394</v>
       </c>
       <c r="K386" s="1"/>
       <c r="M386" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N386" s="1">
         <v>1520000</v>
@@ -19418,7 +19416,7 @@
     </row>
     <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B387" s="1" t="s">
         <v>186</v>
@@ -19427,19 +19425,19 @@
         <v>204</v>
       </c>
       <c r="D387" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E387" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G387" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H387" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I387" s="1" t="s">
         <v>429</v>
@@ -19449,7 +19447,7 @@
       </c>
       <c r="K387" s="1"/>
       <c r="M387" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N387" s="1">
         <v>3150000</v>
@@ -19457,7 +19455,7 @@
     </row>
     <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B388" s="1" t="s">
         <v>187</v>
@@ -19466,19 +19464,19 @@
         <v>215</v>
       </c>
       <c r="D388" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E388" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G388" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H388" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I388" s="1" t="s">
         <v>421</v>
@@ -19488,7 +19486,7 @@
       </c>
       <c r="K388" s="1"/>
       <c r="M388" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N388" s="1">
         <v>860000</v>
@@ -19496,7 +19494,7 @@
     </row>
     <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B389" s="1" t="s">
         <v>187</v>
@@ -19505,16 +19503,16 @@
         <v>215</v>
       </c>
       <c r="D389" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E389" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G389" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H389" s="1" t="s">
         <v>423</v>
@@ -19526,10 +19524,10 @@
         <v>438</v>
       </c>
       <c r="K389" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M389" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N389" s="1">
         <v>1750000</v>
@@ -19537,7 +19535,7 @@
     </row>
     <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B390" s="1" t="s">
         <v>187</v>
@@ -19546,16 +19544,16 @@
         <v>206</v>
       </c>
       <c r="D390" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E390" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G390" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H390" s="1" t="s">
         <v>423</v>
@@ -19568,7 +19566,7 @@
       </c>
       <c r="K390" s="1"/>
       <c r="M390" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N390" s="1">
         <v>1180000</v>
@@ -19576,7 +19574,7 @@
     </row>
     <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B391" s="1" t="s">
         <v>187</v>
@@ -19585,16 +19583,16 @@
         <v>205</v>
       </c>
       <c r="D391" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E391" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G391" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>423</v>
@@ -19606,10 +19604,10 @@
         <v>438</v>
       </c>
       <c r="K391" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M391" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="M391" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="N391" s="1">
         <v>650000</v>
@@ -19617,7 +19615,7 @@
     </row>
     <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B392" s="1" t="s">
         <v>185</v>
@@ -19626,16 +19624,16 @@
         <v>200</v>
       </c>
       <c r="D392" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E392" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="G392" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>423</v>
@@ -19648,7 +19646,7 @@
       </c>
       <c r="K392" s="1"/>
       <c r="M392" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N392" s="1">
         <v>1800000</v>
@@ -19656,25 +19654,25 @@
     </row>
     <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B393" s="1" t="s">
         <v>187</v>
       </c>
       <c r="C393" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D393" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E393" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G393" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>423</v>
@@ -19687,7 +19685,7 @@
       </c>
       <c r="K393" s="1"/>
       <c r="M393" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N393" s="1">
         <v>1480000</v>
@@ -19695,7 +19693,7 @@
     </row>
     <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>189</v>
@@ -19704,16 +19702,16 @@
         <v>221</v>
       </c>
       <c r="D394" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E394" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G394" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>423</v>
@@ -19726,7 +19724,7 @@
       </c>
       <c r="K394" s="1"/>
       <c r="M394" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N394" s="1">
         <v>5700000</v>
@@ -19734,7 +19732,7 @@
     </row>
     <row r="395" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A395" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B395" s="1" t="s">
         <v>187</v>
@@ -19743,16 +19741,16 @@
         <v>236</v>
       </c>
       <c r="D395" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E395" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G395" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>423</v>
@@ -19765,7 +19763,7 @@
       </c>
       <c r="K395" s="1"/>
       <c r="M395" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N395" s="1">
         <v>1350000</v>
@@ -19773,7 +19771,7 @@
     </row>
     <row r="396" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A396" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B396" s="1" t="s">
         <v>187</v>
@@ -19782,16 +19780,16 @@
         <v>206</v>
       </c>
       <c r="D396" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E396" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G396" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>423</v>
@@ -19804,7 +19802,7 @@
       </c>
       <c r="K396" s="1"/>
       <c r="M396" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N396" s="1">
         <v>1850000</v>
@@ -19812,7 +19810,7 @@
     </row>
     <row r="397" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A397" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B397" s="1" t="s">
         <v>191</v>
@@ -19821,16 +19819,16 @@
         <v>253</v>
       </c>
       <c r="D397" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E397" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G397" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>423</v>
@@ -19842,10 +19840,10 @@
         <v>438</v>
       </c>
       <c r="K397" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M397" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N397" s="1">
         <v>1550000</v>
@@ -19853,7 +19851,7 @@
     </row>
     <row r="398" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A398" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B398" s="1" t="s">
         <v>187</v>
@@ -19862,16 +19860,16 @@
         <v>206</v>
       </c>
       <c r="D398" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E398" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G398" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>423</v>
@@ -19880,11 +19878,11 @@
         <v>421</v>
       </c>
       <c r="J398" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K398" s="1"/>
       <c r="M398" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N398" s="1">
         <v>1300000</v>
@@ -19892,7 +19890,7 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A399" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B399" s="1" t="s">
         <v>187</v>
@@ -19901,16 +19899,16 @@
         <v>206</v>
       </c>
       <c r="D399" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E399" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G399" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>423</v>
@@ -19923,7 +19921,7 @@
       </c>
       <c r="K399" s="1"/>
       <c r="M399" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N399" s="1">
         <v>1250000</v>
@@ -19931,7 +19929,7 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A400" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B400" s="1" t="s">
         <v>187</v>
@@ -19940,16 +19938,16 @@
         <v>236</v>
       </c>
       <c r="D400" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E400" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G400" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>423</v>
@@ -19962,7 +19960,7 @@
       </c>
       <c r="K400" s="1"/>
       <c r="M400" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N400" s="1">
         <v>1100000</v>
@@ -19970,7 +19968,7 @@
     </row>
     <row r="401" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A401" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B401" s="1" t="s">
         <v>187</v>
@@ -19979,16 +19977,16 @@
         <v>206</v>
       </c>
       <c r="D401" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E401" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="G401" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>423</v>
@@ -20001,7 +19999,7 @@
       </c>
       <c r="K401" s="1"/>
       <c r="M401" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N401" s="1">
         <v>1170000</v>
@@ -20009,7 +20007,7 @@
     </row>
     <row r="402" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A402" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B402" s="1" t="s">
         <v>187</v>
@@ -20018,16 +20016,16 @@
         <v>215</v>
       </c>
       <c r="D402" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E402" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G402" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>423</v>
@@ -20039,10 +20037,10 @@
         <v>438</v>
       </c>
       <c r="K402" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M402" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N402" s="1">
         <v>1725000</v>
@@ -20050,7 +20048,7 @@
     </row>
     <row r="403" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A403" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B403" s="1" t="s">
         <v>187</v>
@@ -20059,16 +20057,16 @@
         <v>206</v>
       </c>
       <c r="D403" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E403" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G403" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>423</v>
@@ -20081,7 +20079,7 @@
       </c>
       <c r="K403" s="1"/>
       <c r="M403" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N403" s="1">
         <v>1380000</v>
@@ -20089,7 +20087,7 @@
     </row>
     <row r="404" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A404" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B404" s="1" t="s">
         <v>187</v>
@@ -20098,16 +20096,16 @@
         <v>236</v>
       </c>
       <c r="D404" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E404" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G404" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>423</v>
@@ -20120,7 +20118,7 @@
       </c>
       <c r="K404" s="1"/>
       <c r="M404" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N404" s="1">
         <v>1450000</v>
@@ -20128,7 +20126,7 @@
     </row>
     <row r="405" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A405" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B405" s="1" t="s">
         <v>187</v>
@@ -20137,16 +20135,16 @@
         <v>215</v>
       </c>
       <c r="D405" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E405" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G405" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>423</v>
@@ -20158,10 +20156,10 @@
         <v>438</v>
       </c>
       <c r="K405" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M405" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N405" s="1">
         <v>1780000</v>
@@ -20169,7 +20167,7 @@
     </row>
     <row r="406" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A406" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B406" s="1" t="s">
         <v>187</v>
@@ -20178,16 +20176,16 @@
         <v>206</v>
       </c>
       <c r="D406" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E406" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G406" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>423</v>
@@ -20200,7 +20198,7 @@
       </c>
       <c r="K406" s="1"/>
       <c r="M406" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N406" s="1">
         <v>1280000</v>
@@ -20208,7 +20206,7 @@
     </row>
     <row r="407" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A407" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B407" s="1" t="s">
         <v>185</v>
@@ -20217,16 +20215,16 @@
         <v>200</v>
       </c>
       <c r="D407" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E407" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="G407" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>423</v>
@@ -20239,7 +20237,7 @@
       </c>
       <c r="K407" s="1"/>
       <c r="M407" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N407" s="1">
         <v>2470000</v>
@@ -20247,7 +20245,7 @@
     </row>
     <row r="408" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A408" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B408" s="1" t="s">
         <v>187</v>
@@ -20256,16 +20254,16 @@
         <v>206</v>
       </c>
       <c r="D408" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E408" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G408" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>423</v>
@@ -20278,7 +20276,7 @@
       </c>
       <c r="K408" s="1"/>
       <c r="M408" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N408" s="1">
         <v>1280000</v>
@@ -20286,7 +20284,7 @@
     </row>
     <row r="409" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A409" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B409" s="1" t="s">
         <v>191</v>
@@ -20295,16 +20293,16 @@
         <v>241</v>
       </c>
       <c r="D409" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E409" s="1" t="s">
         <v>379</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G409" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>423</v>
@@ -20316,10 +20314,10 @@
         <v>441</v>
       </c>
       <c r="K409" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M409" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N409" s="1">
         <v>2350000</v>
@@ -20327,7 +20325,7 @@
     </row>
     <row r="410" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A410" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B410" s="1" t="s">
         <v>187</v>
@@ -20336,19 +20334,19 @@
         <v>206</v>
       </c>
       <c r="D410" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E410" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G410" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H410" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I410" s="1" t="s">
         <v>421</v>
@@ -20358,7 +20356,7 @@
       </c>
       <c r="K410" s="1"/>
       <c r="M410" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N410" s="1">
         <v>630000</v>
@@ -20366,7 +20364,7 @@
     </row>
     <row r="411" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A411" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B411" s="1" t="s">
         <v>191</v>
@@ -20375,19 +20373,19 @@
         <v>223</v>
       </c>
       <c r="D411" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E411" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G411" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H411" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I411" s="1" t="s">
         <v>421</v>
@@ -20396,10 +20394,10 @@
         <v>438</v>
       </c>
       <c r="K411" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="M411" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N411" s="1">
         <v>650000</v>
@@ -20407,7 +20405,7 @@
     </row>
     <row r="412" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A412" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B412" s="1" t="s">
         <v>185</v>
@@ -20416,16 +20414,16 @@
         <v>200</v>
       </c>
       <c r="D412" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E412" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G412" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>423</v>
@@ -20434,11 +20432,11 @@
         <v>421</v>
       </c>
       <c r="J412" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K412" s="1"/>
       <c r="M412" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N412" s="1">
         <v>1750000</v>
@@ -20446,7 +20444,7 @@
     </row>
     <row r="413" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A413" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B413" s="1" t="s">
         <v>187</v>
@@ -20455,19 +20453,19 @@
         <v>206</v>
       </c>
       <c r="D413" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E413" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G413" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H413" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I413" s="1" t="s">
         <v>421</v>
@@ -20477,7 +20475,7 @@
       </c>
       <c r="K413" s="1"/>
       <c r="M413" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N413" s="1">
         <v>820000</v>
@@ -20485,7 +20483,7 @@
     </row>
     <row r="414" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A414" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B414" s="1" t="s">
         <v>187</v>
@@ -20494,16 +20492,16 @@
         <v>215</v>
       </c>
       <c r="D414" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E414" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G414" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>423</v>
@@ -20515,10 +20513,10 @@
         <v>441</v>
       </c>
       <c r="K414" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M414" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N414" s="1">
         <v>1650000</v>
@@ -20535,16 +20533,16 @@
         <v>207</v>
       </c>
       <c r="D415" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E415" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G415" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>423</v>
@@ -20557,7 +20555,7 @@
       </c>
       <c r="K415" s="1"/>
       <c r="M415" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N415" s="1">
         <v>2200000</v>
@@ -20565,25 +20563,25 @@
     </row>
     <row r="416" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A416" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B416" s="1" t="s">
         <v>197</v>
       </c>
       <c r="C416" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D416" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E416" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G416" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>423</v>
@@ -20595,10 +20593,10 @@
         <v>443</v>
       </c>
       <c r="K416" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M416" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N416" s="1">
         <v>1230000</v>
@@ -20606,7 +20604,7 @@
     </row>
     <row r="417" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A417" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B417" s="1" t="s">
         <v>185</v>
@@ -20615,16 +20613,16 @@
         <v>203</v>
       </c>
       <c r="D417" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E417" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G417" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H417" s="1" t="s">
         <v>423</v>
@@ -20637,7 +20635,7 @@
       </c>
       <c r="K417" s="1"/>
       <c r="M417" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N417" s="1">
         <v>1400000</v>
@@ -20645,7 +20643,7 @@
     </row>
     <row r="418" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A418" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B418" s="1" t="s">
         <v>187</v>
@@ -20654,19 +20652,19 @@
         <v>206</v>
       </c>
       <c r="D418" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E418" s="1" t="s">
         <v>374</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G418" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H418" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I418" s="1" t="s">
         <v>421</v>
@@ -20676,7 +20674,7 @@
       </c>
       <c r="K418" s="1"/>
       <c r="M418" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N418" s="1">
         <v>860000</v>
@@ -20684,25 +20682,25 @@
     </row>
     <row r="419" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A419" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B419" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C419" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D419" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E419" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G419" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>423</v>
@@ -20714,10 +20712,10 @@
         <v>440</v>
       </c>
       <c r="K419" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M419" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N419" s="1">
         <v>1100000</v>
@@ -20725,7 +20723,7 @@
     </row>
     <row r="420" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A420" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B420" s="1" t="s">
         <v>187</v>
@@ -20734,16 +20732,16 @@
         <v>215</v>
       </c>
       <c r="D420" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E420" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G420" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>423</v>
@@ -20755,10 +20753,10 @@
         <v>438</v>
       </c>
       <c r="K420" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M420" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N420" s="1">
         <v>1750000</v>
@@ -20766,7 +20764,7 @@
     </row>
     <row r="421" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A421" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B421" s="1" t="s">
         <v>186</v>
@@ -20775,16 +20773,16 @@
         <v>202</v>
       </c>
       <c r="D421" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E421" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G421" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>423</v>
@@ -20797,7 +20795,7 @@
       </c>
       <c r="K421" s="1"/>
       <c r="M421" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N421" s="1">
         <v>1600000</v>
@@ -20805,7 +20803,7 @@
     </row>
     <row r="422" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A422" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B422" s="1" t="s">
         <v>187</v>
@@ -20814,16 +20812,16 @@
         <v>208</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E422" s="1" t="s">
         <v>377</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G422" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H422" s="1" t="s">
         <v>423</v>
@@ -20835,10 +20833,10 @@
         <v>438</v>
       </c>
       <c r="K422" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M422" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="M422" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="N422" s="1">
         <v>830000</v>
@@ -20846,25 +20844,25 @@
     </row>
     <row r="423" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A423" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B423" s="1" t="s">
         <v>188</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D423" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E423" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G423" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H423" s="1" t="s">
         <v>423</v>
@@ -20876,10 +20874,10 @@
         <v>438</v>
       </c>
       <c r="K423" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M423" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N423" s="1">
         <v>1100000</v>
@@ -20887,25 +20885,25 @@
     </row>
     <row r="424" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A424" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D424" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E424" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G424" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H424" s="1" t="s">
         <v>423</v>
@@ -20917,10 +20915,10 @@
         <v>443</v>
       </c>
       <c r="K424" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M424" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N424" s="1">
         <v>1530000</v>
@@ -20928,7 +20926,7 @@
     </row>
     <row r="425" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A425" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B425" s="1" t="s">
         <v>186</v>
@@ -20937,16 +20935,16 @@
         <v>207</v>
       </c>
       <c r="D425" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E425" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G425" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H425" s="1" t="s">
         <v>423</v>
@@ -20959,7 +20957,7 @@
       </c>
       <c r="K425" s="1"/>
       <c r="M425" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N425" s="1">
         <v>2150000</v>
@@ -20967,7 +20965,7 @@
     </row>
     <row r="426" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A426" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B426" s="1" t="s">
         <v>187</v>
@@ -20976,16 +20974,16 @@
         <v>208</v>
       </c>
       <c r="D426" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E426" s="1" t="s">
         <v>380</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G426" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H426" s="1" t="s">
         <v>423</v>
@@ -20997,10 +20995,10 @@
         <v>438</v>
       </c>
       <c r="K426" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="M426" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="M426" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="N426" s="1">
         <v>490000</v>
@@ -21008,7 +21006,7 @@
     </row>
     <row r="427" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A427" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B427" s="1" t="s">
         <v>185</v>
@@ -21017,16 +21015,16 @@
         <v>200</v>
       </c>
       <c r="D427" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E427" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G427" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H427" s="1" t="s">
         <v>423</v>
@@ -21039,7 +21037,7 @@
       </c>
       <c r="K427" s="1"/>
       <c r="M427" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N427" s="1">
         <v>1930000</v>
@@ -21047,7 +21045,7 @@
     </row>
     <row r="428" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A428" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B428" s="1" t="s">
         <v>186</v>
@@ -21056,16 +21054,16 @@
         <v>202</v>
       </c>
       <c r="D428" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E428" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G428" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H428" s="1" t="s">
         <v>423</v>
@@ -21078,7 +21076,7 @@
       </c>
       <c r="K428" s="1"/>
       <c r="M428" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N428" s="1">
         <v>2610000</v>
@@ -21086,7 +21084,7 @@
     </row>
     <row r="429" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A429" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B429" s="1" t="s">
         <v>185</v>
@@ -21095,16 +21093,16 @@
         <v>200</v>
       </c>
       <c r="D429" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E429" s="1" t="s">
         <v>388</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G429" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>423</v>
@@ -21117,7 +21115,7 @@
       </c>
       <c r="K429" s="1"/>
       <c r="M429" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N429" s="1">
         <v>1780000</v>
@@ -21125,7 +21123,7 @@
     </row>
     <row r="430" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A430" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B430" s="1" t="s">
         <v>187</v>
@@ -21134,16 +21132,16 @@
         <v>215</v>
       </c>
       <c r="D430" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E430" s="1" t="s">
         <v>379</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G430" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H430" s="1" t="s">
         <v>423</v>
@@ -21155,10 +21153,10 @@
         <v>440</v>
       </c>
       <c r="K430" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M430" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N430" s="1">
         <v>1800000</v>
@@ -21166,7 +21164,7 @@
     </row>
     <row r="431" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A431" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B431" s="1" t="s">
         <v>185</v>
@@ -21175,19 +21173,19 @@
         <v>214</v>
       </c>
       <c r="D431" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E431" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G431" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H431" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I431" s="1" t="s">
         <v>421</v>
@@ -21197,7 +21195,7 @@
       </c>
       <c r="K431" s="1"/>
       <c r="M431" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N431" s="1">
         <v>2750000</v>
@@ -21205,7 +21203,7 @@
     </row>
     <row r="432" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A432" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B432" s="1" t="s">
         <v>187</v>
@@ -21214,16 +21212,16 @@
         <v>206</v>
       </c>
       <c r="D432" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E432" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G432" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H432" s="1" t="s">
         <v>423</v>
@@ -21236,7 +21234,7 @@
       </c>
       <c r="K432" s="1"/>
       <c r="M432" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N432" s="1">
         <v>1180000</v>
@@ -21244,7 +21242,7 @@
     </row>
     <row r="433" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A433" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B433" s="1" t="s">
         <v>186</v>
@@ -21253,16 +21251,16 @@
         <v>207</v>
       </c>
       <c r="D433" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E433" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G433" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H433" s="1" t="s">
         <v>423</v>
@@ -21275,7 +21273,7 @@
       </c>
       <c r="K433" s="1"/>
       <c r="M433" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N433" s="1">
         <v>2500000</v>
@@ -21283,7 +21281,7 @@
     </row>
     <row r="434" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A434" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B434" s="1" t="s">
         <v>185</v>
@@ -21292,16 +21290,16 @@
         <v>200</v>
       </c>
       <c r="D434" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E434" s="1" t="s">
         <v>373</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G434" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>423</v>
@@ -21314,7 +21312,7 @@
       </c>
       <c r="K434" s="1"/>
       <c r="M434" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N434" s="1">
         <v>1850000</v>
@@ -21322,7 +21320,7 @@
     </row>
     <row r="435" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A435" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B435" s="1" t="s">
         <v>187</v>
@@ -21331,16 +21329,16 @@
         <v>236</v>
       </c>
       <c r="D435" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E435" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G435" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H435" s="1" t="s">
         <v>423</v>
@@ -21353,7 +21351,7 @@
       </c>
       <c r="K435" s="1"/>
       <c r="M435" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N435" s="1">
         <v>1520000</v>
@@ -21361,7 +21359,7 @@
     </row>
     <row r="436" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A436" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B436" s="1" t="s">
         <v>187</v>
@@ -21370,19 +21368,19 @@
         <v>206</v>
       </c>
       <c r="D436" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E436" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G436" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H436" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I436" s="1" t="s">
         <v>421</v>
@@ -21392,7 +21390,7 @@
       </c>
       <c r="K436" s="1"/>
       <c r="M436" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N436" s="1">
         <v>740000</v>
@@ -21400,25 +21398,25 @@
     </row>
     <row r="437" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A437" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D437" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E437" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G437" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H437" s="1" t="s">
         <v>423</v>
@@ -21430,10 +21428,10 @@
         <v>445</v>
       </c>
       <c r="K437" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M437" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N437" s="1">
         <v>1560000</v>
@@ -21441,7 +21439,7 @@
     </row>
     <row r="438" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A438" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>185</v>
@@ -21450,16 +21448,16 @@
         <v>200</v>
       </c>
       <c r="D438" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E438" s="1" t="s">
         <v>366</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G438" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H438" s="1" t="s">
         <v>423</v>
@@ -21472,7 +21470,7 @@
       </c>
       <c r="K438" s="1"/>
       <c r="M438" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N438" s="1">
         <v>2870000</v>
@@ -21480,7 +21478,7 @@
     </row>
     <row r="439" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A439" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B439" s="1" t="s">
         <v>187</v>
@@ -21489,16 +21487,16 @@
         <v>236</v>
       </c>
       <c r="D439" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E439" s="1" t="s">
         <v>384</v>
       </c>
       <c r="F439" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G439" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H439" s="1" t="s">
         <v>423</v>
@@ -21511,7 +21509,7 @@
       </c>
       <c r="K439" s="1"/>
       <c r="M439" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N439" s="1">
         <v>1450000</v>
@@ -21519,7 +21517,7 @@
     </row>
     <row r="440" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A440" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B440" s="1" t="s">
         <v>186</v>
@@ -21528,16 +21526,16 @@
         <v>202</v>
       </c>
       <c r="D440" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E440" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F440" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G440" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H440" s="1" t="s">
         <v>423</v>
@@ -21550,7 +21548,7 @@
       </c>
       <c r="K440" s="1"/>
       <c r="M440" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N440" s="1">
         <v>980000</v>
@@ -21558,7 +21556,7 @@
     </row>
     <row r="441" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A441" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B441" s="1" t="s">
         <v>187</v>
@@ -21567,16 +21565,16 @@
         <v>215</v>
       </c>
       <c r="D441" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E441" s="1" t="s">
         <v>378</v>
       </c>
       <c r="F441" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G441" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>423</v>
@@ -21588,10 +21586,10 @@
         <v>438</v>
       </c>
       <c r="K441" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M441" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N441" s="1">
         <v>1630000</v>
@@ -21599,7 +21597,7 @@
     </row>
     <row r="442" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A442" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B442" s="1" t="s">
         <v>185</v>
@@ -21608,16 +21606,16 @@
         <v>200</v>
       </c>
       <c r="D442" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E442" s="1" t="s">
         <v>383</v>
       </c>
       <c r="F442" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G442" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>423</v>
@@ -21630,7 +21628,7 @@
       </c>
       <c r="K442" s="1"/>
       <c r="M442" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N442" s="1">
         <v>1450000</v>
@@ -21638,7 +21636,7 @@
     </row>
     <row r="443" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A443" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B443" s="1" t="s">
         <v>186</v>
@@ -21647,16 +21645,16 @@
         <v>202</v>
       </c>
       <c r="D443" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E443" s="1" t="s">
         <v>368</v>
       </c>
       <c r="F443" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G443" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>423</v>
@@ -21669,7 +21667,7 @@
       </c>
       <c r="K443" s="1"/>
       <c r="M443" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N443" s="1">
         <v>3650000</v>
@@ -21677,7 +21675,7 @@
     </row>
     <row r="444" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A444" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B444" s="1" t="s">
         <v>187</v>
@@ -21686,16 +21684,16 @@
         <v>236</v>
       </c>
       <c r="D444" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E444" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F444" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G444" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>423</v>
@@ -21708,7 +21706,7 @@
       </c>
       <c r="K444" s="1"/>
       <c r="M444" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N444" s="1">
         <v>1400000</v>
@@ -21716,7 +21714,7 @@
     </row>
     <row r="445" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A445" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B445" s="1" t="s">
         <v>187</v>
@@ -21725,16 +21723,16 @@
         <v>236</v>
       </c>
       <c r="D445" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E445" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F445" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G445" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>423</v>
@@ -21747,7 +21745,7 @@
       </c>
       <c r="K445" s="1"/>
       <c r="M445" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N445" s="1">
         <v>1500000</v>
@@ -21755,7 +21753,7 @@
     </row>
     <row r="446" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A446" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B446" s="1" t="s">
         <v>187</v>
@@ -21764,16 +21762,16 @@
         <v>215</v>
       </c>
       <c r="D446" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E446" s="1" t="s">
         <v>367</v>
       </c>
       <c r="F446" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G446" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H446" s="1" t="s">
         <v>423</v>
@@ -21785,10 +21783,10 @@
         <v>438</v>
       </c>
       <c r="K446" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="M446" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N446" s="1">
         <v>1730000</v>
@@ -21796,7 +21794,7 @@
     </row>
     <row r="447" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A447" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B447" s="1" t="s">
         <v>187</v>
@@ -21805,16 +21803,16 @@
         <v>236</v>
       </c>
       <c r="D447" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E447" s="1" t="s">
         <v>371</v>
       </c>
       <c r="F447" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G447" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>423</v>
@@ -21827,7 +21825,7 @@
       </c>
       <c r="K447" s="1"/>
       <c r="M447" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N447" s="1">
         <v>1370000</v>
@@ -21835,25 +21833,25 @@
     </row>
     <row r="448" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A448" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C448" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D448" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E448" s="1" t="s">
         <v>386</v>
       </c>
       <c r="F448" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G448" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>423</v>
@@ -21866,7 +21864,7 @@
       </c>
       <c r="K448" s="1"/>
       <c r="M448" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N448" s="1">
         <v>2500000</v>
@@ -21874,7 +21872,7 @@
     </row>
     <row r="449" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A449" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B449" s="1" t="s">
         <v>185</v>
@@ -21883,16 +21881,16 @@
         <v>200</v>
       </c>
       <c r="D449" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E449" s="1" t="s">
         <v>369</v>
       </c>
       <c r="F449" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G449" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H449" s="1" t="s">
         <v>423</v>
@@ -21905,7 +21903,7 @@
       </c>
       <c r="K449" s="1"/>
       <c r="M449" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N449" s="1">
         <v>2120000</v>
@@ -21913,28 +21911,28 @@
     </row>
     <row r="450" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A450" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B450" s="1" t="s">
         <v>196</v>
       </c>
       <c r="C450" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D450" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E450" s="1" t="s">
         <v>385</v>
       </c>
       <c r="F450" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G450" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H450" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I450" s="1" t="s">
         <v>421</v>
@@ -21944,7 +21942,7 @@
       </c>
       <c r="K450" s="1"/>
       <c r="M450" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N450" s="1">
         <v>780000</v>
@@ -21952,7 +21950,7 @@
     </row>
     <row r="451" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A451" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B451" s="1" t="s">
         <v>185</v>
@@ -21961,16 +21959,16 @@
         <v>200</v>
       </c>
       <c r="D451" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E451" s="1" t="s">
         <v>372</v>
       </c>
       <c r="F451" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G451" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H451" s="1" t="s">
         <v>423</v>
@@ -21983,7 +21981,7 @@
       </c>
       <c r="K451" s="1"/>
       <c r="M451" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="N451" s="1">
         <v>1350000</v>
@@ -21991,7 +21989,7 @@
     </row>
     <row r="452" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A452" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B452" s="1" t="s">
         <v>186</v>
@@ -22000,16 +21998,16 @@
         <v>202</v>
       </c>
       <c r="D452" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E452" s="1" t="s">
         <v>379</v>
       </c>
       <c r="F452" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G452" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H452" s="1" t="s">
         <v>423</v>
@@ -22022,7 +22020,7 @@
       </c>
       <c r="K452" s="1"/>
       <c r="M452" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N452" s="1">
         <v>3950000</v>
